--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED37A9-4BC6-4356-A1B1-B5559489BD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC37655-05C3-49FF-9395-58E77CE704DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>הזמנה טיפול</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>שם מקבל המכשיר                                                      מס' עובד</t>
-  </si>
-  <si>
-    <t>12925120011-C</t>
   </si>
   <si>
     <t>מק"ט</t>
@@ -93,7 +90,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010409]d/m/yyyy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +200,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -338,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -376,9 +380,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,6 +425,14 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +455,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>524095</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>147145</xdr:rowOff>
+      <xdr:colOff>571720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>764956</xdr:colOff>
+      <xdr:colOff>812581</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>120868</xdr:rowOff>
+      <xdr:rowOff>206593</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -469,7 +478,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9988893119" y="4261945"/>
+          <a:off x="9988845494" y="4385770"/>
           <a:ext cx="240861" cy="164223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -836,7 +845,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,7 +895,7 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="16">
@@ -895,8 +904,7 @@
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="16">
@@ -918,7 +926,7 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="18.75">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="16">
@@ -928,7 +936,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="18">
@@ -959,13 +967,13 @@
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="18.75">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="16" t="s">
         <v>6</v>
       </c>
@@ -976,66 +984,66 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="15.75">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="15.75">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:12" ht="18.75">
+      <c r="A14" s="22"/>
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="7"/>
       <c r="H15" s="14"/>
     </row>
@@ -1046,7 +1054,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="14"/>
       <c r="J16" t="s">
         <v>9</v>
@@ -1054,12 +1062,12 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="13"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8">
@@ -1072,16 +1080,16 @@
       <c r="G18" s="7"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="13"/>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8">
@@ -1100,106 +1108,104 @@
     </row>
     <row r="22" spans="1:8" ht="18.75">
       <c r="A22" s="13"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="13"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="18.75">
       <c r="A24" s="13"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="35"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="36"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="38" t="str">
+      <c r="G27" s="37" t="str">
         <f>$C$2</f>
         <v>הזמנה טיפול</v>
       </c>
-      <c r="H27" s="38" t="str">
+      <c r="H27" s="37" t="str">
         <f>$A$12</f>
         <v>תאריך</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="G28" s="4"/>
-      <c r="H28" s="39"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:12" ht="15.75">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97253\source\repos\getaobelay\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC37655-05C3-49FF-9395-58E77CE704DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010409]d/m/yyyy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
@@ -94,7 +93,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -102,7 +101,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -111,7 +110,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,7 +118,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +126,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,14 +134,14 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -160,14 +159,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -176,7 +175,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -184,7 +183,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,21 +192,21 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -597,23 +596,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -649,23 +631,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,20 +806,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="8" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="14.296875" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickTop="1">
+    <row r="1" spans="1:12" ht="14.4" thickTop="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -866,7 +834,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="31.5">
+    <row r="2" spans="1:12" ht="30">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -894,7 +862,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75">
+    <row r="4" spans="1:12" ht="17.399999999999999">
       <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
@@ -915,7 +883,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="18.75">
+    <row r="5" spans="1:12" ht="17.399999999999999">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -925,7 +893,7 @@
       <c r="G5" s="16"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:12" ht="18.75">
+    <row r="6" spans="1:12" ht="17.399999999999999">
       <c r="A6" s="47" t="s">
         <v>3</v>
       </c>
@@ -955,7 +923,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="44.25">
+    <row r="8" spans="1:12" ht="44.4">
       <c r="A8" s="13"/>
       <c r="B8" s="19"/>
       <c r="C8" s="7"/>
@@ -966,7 +934,7 @@
       <c r="H8" s="14"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" ht="18.75">
+    <row r="9" spans="1:12" ht="17.399999999999999">
       <c r="A9" s="47" t="s">
         <v>5</v>
       </c>
@@ -974,7 +942,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="16">
@@ -983,7 +951,7 @@
       </c>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="21"/>
@@ -993,7 +961,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="22"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1003,7 +971,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:12" ht="18.75">
+    <row r="12" spans="1:12" ht="17.399999999999999">
       <c r="A12" s="47" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +983,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="22"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1025,7 +993,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:12" ht="18.75">
+    <row r="14" spans="1:12" ht="17.399999999999999">
       <c r="A14" s="22"/>
       <c r="B14" s="8" t="s">
         <v>8</v>
@@ -1037,7 +1005,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -1080,7 +1048,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75">
+    <row r="19" spans="1:8" ht="17.399999999999999">
       <c r="A19" s="13"/>
       <c r="B19" s="48" t="s">
         <v>10</v>
@@ -1106,7 +1074,7 @@
       <c r="A21" s="13"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75">
+    <row r="22" spans="1:8" ht="17.399999999999999">
       <c r="A22" s="13"/>
       <c r="B22" s="28" t="s">
         <v>11</v>
@@ -1128,7 +1096,7 @@
       <c r="G23" s="33"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75">
+    <row r="24" spans="1:8" ht="17.399999999999999">
       <c r="A24" s="13"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -1193,7 +1161,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75">
+    <row r="33" spans="1:12" ht="15.6">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="41"/>
@@ -1208,31 +1176,31 @@
       <c r="L33" s="40"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97253\source\repos\getaobelay\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D267A4A8-FF37-42D3-A87C-51C655A8508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>הזמנה טיפול</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>מאת</t>
   </si>
@@ -72,19 +70,19 @@
     <t>שם מקבל המכשיר                                                      מס' עובד</t>
   </si>
   <si>
-    <t>מק"ט</t>
-  </si>
-  <si>
-    <t>שם הצמד</t>
-  </si>
-  <si>
-    <t>הדגם</t>
+    <t xml:space="preserve"> טופס טיפול</t>
+  </si>
+  <si>
+    <t>סיום</t>
+  </si>
+  <si>
+    <t>קליטה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010409]d/m/yyyy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
@@ -93,7 +91,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -101,7 +99,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -110,15 +108,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -126,7 +116,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,14 +124,14 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -159,14 +149,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -175,7 +165,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -183,7 +173,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,21 +182,29 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -341,25 +339,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -367,71 +358,74 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,6 +590,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -631,6 +642,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -806,374 +834,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="14.296875" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" thickTop="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="30">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickTop="1">
+      <c r="A1" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75">
+      <c r="A2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="5"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="18.75">
+      <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9">
-        <f>O5</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="7"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="13"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.399999999999999">
-      <c r="A4" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <f>$E$28</f>
         <v>0</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
         <f>$F$28</f>
         <v>0</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.399999999999999">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.399999999999999">
-      <c r="A6" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="H4" s="14"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75">
+      <c r="A6" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13">
         <f>$B$28</f>
         <v>0</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15">
         <f>$C$28</f>
         <v>0</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" ht="44.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="14"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.399999999999999">
-      <c r="A9" s="47" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="44.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="11"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75">
+      <c r="A9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <f>$D$28</f>
         <v>0</v>
       </c>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.399999999999999">
-      <c r="A12" s="47" t="s">
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75">
+      <c r="A12" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75">
+      <c r="A14" s="19"/>
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" ht="15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.399999999999999">
-      <c r="A14" s="22"/>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="11"/>
+      <c r="J16" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="14"/>
-      <c r="J16" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75">
+      <c r="A19" s="10"/>
+      <c r="B19" s="41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="13"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.399999999999999">
-      <c r="A19" s="13"/>
-      <c r="B19" s="48" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75">
+      <c r="A22" s="10"/>
+      <c r="B22" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.399999999999999">
-      <c r="A22" s="13"/>
-      <c r="B22" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="14"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="13"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.399999999999999">
-      <c r="A24" s="13"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="14"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75">
+      <c r="A24" s="10"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="35"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="37" t="str">
-        <f>$C$2</f>
-        <v>הזמנה טיפול</v>
-      </c>
-      <c r="H27" s="37" t="str">
-        <f>$A$12</f>
-        <v>תאריך</v>
-      </c>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="G28" s="4"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="39"/>
+      <c r="A31" s="32"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.6">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75">
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1183,24 +1193,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D267A4A8-FF37-42D3-A87C-51C655A8508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C18CC5-261D-4A04-8908-679C43C55E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,77 +441,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571720</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>42370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>812581</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>206593</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="מלבן 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9988845494" y="4385770"/>
-          <a:ext cx="240861" cy="164223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r" rtl="1"/>
-          <a:endParaRPr lang="he-IL" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,7 +1117,6 @@
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C18CC5-261D-4A04-8908-679C43C55E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E54294C-168E-4189-A00B-2F07C4A16C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -770,7 +770,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,7 +810,6 @@
     <row r="3" spans="1:12" ht="18.75">
       <c r="A3" s="10"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>

--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E54294C-168E-4189-A00B-2F07C4A16C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26578D0D-92CA-4AB6-BE2D-5DB087823D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,6 +441,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83705EE3-36E0-21FF-65AC-9920448F4943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9983038200" y="76200"/>
+          <a:ext cx="2181225" cy="523740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,7 +825,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1116,6 +1171,7 @@
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26578D0D-92CA-4AB6-BE2D-5DB087823D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A34D3D-0EEE-4BFA-AAF8-923EE25CEB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,25 +445,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114165</xdr:rowOff>
+      <xdr:rowOff>133215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83705EE3-36E0-21FF-65AC-9920448F4943}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5139C0AC-AF57-44D8-BB99-9BB7389F4EF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -485,7 +485,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9983038200" y="76200"/>
+          <a:off x="9983028675" y="95250"/>
           <a:ext cx="2181225" cy="523740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -825,7 +825,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A34D3D-0EEE-4BFA-AAF8-923EE25CEB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8650A4-BBF3-49E5-84DC-C8FE0464ECEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,15 +448,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>852989</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:colOff>933449</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133215</xdr:rowOff>
+      <xdr:rowOff>19535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -485,15 +485,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9983028675" y="95250"/>
-          <a:ext cx="2181225" cy="523740"/>
+          <a:off x="9983009626" y="28576"/>
+          <a:ext cx="1985460" cy="476734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -825,7 +825,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8650A4-BBF3-49E5-84DC-C8FE0464ECEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C3E97-D424-4B50-94F7-45BA1BDB77FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,61 +441,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>852989</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19535</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5139C0AC-AF57-44D8-BB99-9BB7389F4EF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9983009626" y="28576"/>
-          <a:ext cx="1985460" cy="476734"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,7 +1116,6 @@
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CalibrationTracking.Desktop/Resources/Print.xlsx
+++ b/CalibrationTracking.Desktop/Resources/Print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\getao-b\Desktop\Projects\CalibrationTracking\CalibrationTracking.Desktop\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C3E97-D424-4B50-94F7-45BA1BDB77FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6416AE0-5DDD-4D20-AE17-D366E097CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -770,7 +770,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,19 +822,13 @@
       <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13">
-        <f>$E$28</f>
-        <v>0</v>
-      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="13">
-        <f>$F$28</f>
-        <v>0</v>
-      </c>
+      <c r="G4" s="13"/>
       <c r="H4" s="14"/>
       <c r="I4" s="9"/>
       <c r="J4" s="5"/>
@@ -853,20 +847,14 @@
       <c r="A6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13">
-        <f>$B$28</f>
-        <v>0</v>
-      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="15">
-        <f>$C$28</f>
-        <v>0</v>
-      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:12">
@@ -901,10 +889,7 @@
       <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="13">
-        <f>$D$28</f>
-        <v>0</v>
-      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:12" ht="15.75">
